--- a/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_7_regions_Malagasy.xlsx
+++ b/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_7_regions_Malagasy.xlsx
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -5988,7 +5988,7 @@
         <v>46</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -5997,16 +5997,16 @@
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6650,13 +6650,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -10486,7 +10486,7 @@
         <v>219</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -11012,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="b">
         <v>0</v>
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -12896,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" t="b">
         <v>0</v>
@@ -14285,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -14360,7 +14360,7 @@
         <v>368</v>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="b">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="b">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="D453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453" t="b">
         <v>0</v>
@@ -16741,10 +16741,10 @@
         <v>0</v>
       </c>
       <c r="G453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="C522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522" t="b">
         <v>1</v>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="F523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" t="b">
         <v>1</v>
@@ -18720,7 +18720,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -18740,13 +18740,13 @@
         <v>0</v>
       </c>
       <c r="F530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" t="b">
         <v>1</v>
       </c>
       <c r="H530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -19595,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="E563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F563" t="b">
         <v>0</v>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -19852,7 +19852,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="b">
         <v>0</v>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575" t="b">
         <v>1</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="F634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G634" t="b">
         <v>1</v>
@@ -21502,7 +21502,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="F707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G707" t="b">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -24622,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E774" t="b">
         <v>0</v>
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="H807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -26598,7 +26598,7 @@
         <v>0</v>
       </c>
       <c r="H832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="F878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G878" t="b">
         <v>1</v>
@@ -28493,7 +28493,7 @@
         <v>1</v>
       </c>
       <c r="G905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H905" t="b">
         <v>0</v>
@@ -28519,7 +28519,7 @@
         <v>1</v>
       </c>
       <c r="G906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H906" t="b">
         <v>0</v>
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
       <c r="F926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G926" t="b">
         <v>1</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="D941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E941" t="b">
         <v>0</v>
@@ -32020,7 +32020,7 @@
         <v>1</v>
       </c>
       <c r="D1041" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1041" t="b">
         <v>0</v>
@@ -32205,7 +32205,7 @@
         <v>1</v>
       </c>
       <c r="E1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1048" t="b">
         <v>0</v>
@@ -32407,7 +32407,7 @@
         <v>0</v>
       </c>
       <c r="C1056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1056" t="b">
         <v>1</v>
@@ -32852,7 +32852,7 @@
         <v>1</v>
       </c>
       <c r="D1073" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1073" t="b">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>0</v>
       </c>
       <c r="F1125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1125" t="b">
         <v>1</v>
@@ -34574,7 +34574,7 @@
         <v>0</v>
       </c>
       <c r="F1139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1139" t="b">
         <v>1</v>
@@ -35198,7 +35198,7 @@
         <v>0</v>
       </c>
       <c r="F1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1163" t="b">
         <v>1</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="F1184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1184" t="b">
         <v>1</v>
@@ -36076,7 +36076,7 @@
         <v>0</v>
       </c>
       <c r="D1197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1197" t="b">
         <v>0</v>
@@ -36140,7 +36140,7 @@
         <v>1</v>
       </c>
       <c r="H1199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -36322,7 +36322,7 @@
         <v>0</v>
       </c>
       <c r="H1206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -36342,7 +36342,7 @@
         <v>0</v>
       </c>
       <c r="F1207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1207" t="b">
         <v>1</v>
@@ -36501,7 +36501,7 @@
         <v>1</v>
       </c>
       <c r="G1213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1213" t="b">
         <v>0</v>
@@ -36642,19 +36642,19 @@
         <v>1225</v>
       </c>
       <c r="B1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1219" t="b">
         <v>0</v>
       </c>
       <c r="D1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1219" t="b">
         <v>0</v>
       </c>
       <c r="F1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1219" t="b">
         <v>1</v>
@@ -36723,7 +36723,7 @@
         <v>0</v>
       </c>
       <c r="C1222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1222" t="b">
         <v>1</v>
@@ -36758,7 +36758,7 @@
         <v>0</v>
       </c>
       <c r="F1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1223" t="b">
         <v>1</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="F1232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1232" t="b">
         <v>1</v>
@@ -37061,7 +37061,7 @@
         <v>0</v>
       </c>
       <c r="C1235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1235" t="b">
         <v>1</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="F1238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1238" t="b">
         <v>1</v>
@@ -37168,7 +37168,7 @@
         <v>1</v>
       </c>
       <c r="D1239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1239" t="b">
         <v>0</v>
@@ -37246,7 +37246,7 @@
         <v>1</v>
       </c>
       <c r="D1242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1242" t="b">
         <v>0</v>
@@ -37414,7 +37414,7 @@
         <v>0</v>
       </c>
       <c r="H1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
@@ -37477,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="C1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1251" t="b">
         <v>0</v>
@@ -37492,7 +37492,7 @@
         <v>1</v>
       </c>
       <c r="H1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -37506,7 +37506,7 @@
         <v>1</v>
       </c>
       <c r="D1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1252" t="b">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>1</v>
       </c>
       <c r="E1257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1257" t="b">
         <v>0</v>
@@ -37778,7 +37778,7 @@
         <v>0</v>
       </c>
       <c r="H1262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -37818,7 +37818,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1264" t="b">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="F1266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1266" t="b">
         <v>1</v>
@@ -38390,7 +38390,7 @@
         <v>1</v>
       </c>
       <c r="D1286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1286" t="b">
         <v>0</v>
@@ -38592,7 +38592,7 @@
         <v>1300</v>
       </c>
       <c r="B1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1294" t="b">
         <v>1</v>
@@ -38601,7 +38601,7 @@
         <v>1</v>
       </c>
       <c r="E1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1294" t="b">
         <v>0</v>
@@ -38610,7 +38610,7 @@
         <v>0</v>
       </c>
       <c r="H1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -39728,7 +39728,7 @@
         <v>1</v>
       </c>
       <c r="H1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -39780,7 +39780,7 @@
         <v>0</v>
       </c>
       <c r="H1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -40710,7 +40710,7 @@
         <v>0</v>
       </c>
       <c r="F1375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1375" t="b">
         <v>0</v>
@@ -41259,7 +41259,7 @@
         <v>1</v>
       </c>
       <c r="G1396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1396" t="b">
         <v>0</v>
@@ -41305,7 +41305,7 @@
         <v>0</v>
       </c>
       <c r="E1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1398" t="b">
         <v>0</v>
@@ -41507,7 +41507,7 @@
         <v>0</v>
       </c>
       <c r="C1406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1406" t="b">
         <v>1</v>
@@ -41646,7 +41646,7 @@
         <v>0</v>
       </c>
       <c r="F1411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1411" t="b">
         <v>0</v>
@@ -41744,7 +41744,7 @@
         <v>1</v>
       </c>
       <c r="D1415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1415" t="b">
         <v>0</v>
@@ -41984,7 +41984,7 @@
         <v>0</v>
       </c>
       <c r="F1424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1424" t="b">
         <v>0</v>
@@ -42108,7 +42108,7 @@
         <v>1</v>
       </c>
       <c r="D1429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1429" t="b">
         <v>0</v>
@@ -42417,7 +42417,7 @@
         <v>0</v>
       </c>
       <c r="C1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1441" t="b">
         <v>1</v>
@@ -42432,7 +42432,7 @@
         <v>0</v>
       </c>
       <c r="H1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442">
